--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2527482.516006635</v>
+        <v>-2530177.313282482</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>203.5758298573902</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>214.7499629507381</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>97.60651442556347</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>90.11116190171407</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>19.7355242897485</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>80.70305813236325</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>315.9024626654647</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>209.7578641490671</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>137.474502093454</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>37.50778132746608</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>41.84212836818449</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>13.02719212039627</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>69.73758483378505</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>107.9721668030643</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>22.04658882052573</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>79.70119244397701</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>11.79076481679217</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>2.607010073152018</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>33.82891891787531</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C25" t="n">
         <v>142.9621736065881</v>
@@ -2482,7 +2482,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F25" t="n">
         <v>121.1364005308915</v>
@@ -2491,10 +2491,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541839</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S25" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V25" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W25" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y25" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="26">
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898984</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
         <v>142.9621736065881</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2959,7 +2959,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652574</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3004,13 +3004,13 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,16 +3238,16 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096042</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652576</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1785.600156360222</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C2" t="n">
-        <v>1416.63763941981</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D2" t="n">
-        <v>1058.37194081306</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>672.5836882148155</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
@@ -4334,7 +4334,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2011.975325036755</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2011.975325036755</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>2011.975325036755</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>1638.509566775675</v>
       </c>
       <c r="Y2" t="n">
-        <v>2172.199996424344</v>
+        <v>1248.370234799863</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.253210781439</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1541.675203545515</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="C4" t="n">
-        <v>1372.739020617608</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="D4" t="n">
-        <v>1222.622381205272</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="E4" t="n">
-        <v>1222.622381205272</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F4" t="n">
-        <v>1075.732433707362</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936614</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936614</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936614</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.127174075599</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2263.127174075599</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U4" t="n">
-        <v>2263.127174075599</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V4" t="n">
-        <v>2172.105798417302</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="W4" t="n">
-        <v>2172.105798417302</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="X4" t="n">
-        <v>1944.116247519284</v>
+        <v>641.675262669166</v>
       </c>
       <c r="Y4" t="n">
-        <v>1723.323668375754</v>
+        <v>621.7403896492181</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1614.225191671744</v>
+        <v>1217.629781995562</v>
       </c>
       <c r="C5" t="n">
-        <v>1245.262674731332</v>
+        <v>1217.629781995562</v>
       </c>
       <c r="D5" t="n">
-        <v>1163.744434193592</v>
+        <v>859.3640833888119</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953475</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057399</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4595,22 +4595,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2353.59368700598</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>2000.825031735866</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X5" t="n">
-        <v>2000.825031735866</v>
+        <v>1604.229622059684</v>
       </c>
       <c r="Y5" t="n">
-        <v>2000.825031735866</v>
+        <v>1604.229622059684</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N6" t="n">
-        <v>1590.463386300792</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O6" t="n">
-        <v>1922.533821476953</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P6" t="n">
         <v>2422.685363568936</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>536.0825277700245</v>
+        <v>769.5800553833139</v>
       </c>
       <c r="C7" t="n">
-        <v>367.1463448421176</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="D7" t="n">
-        <v>367.1463448421176</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E7" t="n">
-        <v>219.2332512597245</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1227.940741780755</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1227.940741780755</v>
+        <v>1172.021099357084</v>
       </c>
       <c r="V7" t="n">
-        <v>1227.940741780755</v>
+        <v>1172.021099357084</v>
       </c>
       <c r="W7" t="n">
-        <v>938.5235717437944</v>
+        <v>1172.021099357084</v>
       </c>
       <c r="X7" t="n">
-        <v>938.5235717437944</v>
+        <v>1172.021099357084</v>
       </c>
       <c r="Y7" t="n">
-        <v>717.7309926002642</v>
+        <v>951.2285202135537</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1639.433183287318</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C8" t="n">
-        <v>1270.470666346906</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>912.204967740156</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>526.4167151419117</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>519.4712143927082</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>104.3987642377047</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4805,7 +4805,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.03827352421</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.57251526313</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.433183287318</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>629.1078027362229</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>460.171619808316</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571093</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591989</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339178</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>79.67089635177561</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>1031.548846709993</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>1031.548846709993</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>810.7562675664626</v>
       </c>
     </row>
     <row r="11">
@@ -5030,7 +5030,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380886</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101817</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D13" t="n">
-        <v>572.9069687101817</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>424.9938751277886</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="14">
@@ -5282,16 +5282,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5355,7 +5355,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5364,10 +5364,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1031.260321675049</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>862.3241387471426</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>712.2074993348068</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2252.19838578386</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1963.123159128057</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X16" t="n">
-        <v>1433.701365648819</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>1212.908786505289</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5504,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5604,10 +5604,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.843151638089</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C19" t="n">
-        <v>572.9069687101821</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D19" t="n">
-        <v>422.7903292978464</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>274.8772357154533</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>127.9872882175429</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611859</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683287</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5765,10 +5765,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5838,10 +5838,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="23">
@@ -5969,40 +5969,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
         <v>1896.176478190825</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345473</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>198.094482495415</v>
@@ -6151,7 +6151,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6169,28 +6169,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T25" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y25" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
@@ -6379,16 +6379,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580113</v>
@@ -6613,19 +6613,19 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,25 +6643,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6689,7 +6689,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6701,7 +6701,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6789,13 +6789,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6856,25 +6856,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
@@ -6883,25 +6883,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7081,7 +7081,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7260,16 +7260,16 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7555,7 +7555,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,13 +7564,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7737,16 +7737,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8058,28 +8058,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>255.5240487471577</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,13 +8304,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>255.5240487471572</v>
+        <v>114.3555089013343</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>203.3002158843212</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>36.29528717772396</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,7 +22610,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>162.0264814221139</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>249.7003506963553</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>198.8491290623463</v>
       </c>
     </row>
     <row r="5">
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>40.64330621514807</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>123.3744592024055</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>66.73277020259216</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>205.6146855104961</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>146.0084629450603</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>131.6952193743935</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -26332,22 +26332,22 @@
         <v>20178.66499225015</v>
       </c>
       <c r="I2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="J2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.04424660711</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="N2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="O2" t="n">
         <v>20526.04424660709</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363182</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.831690603168681e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30724.14482028153</v>
+        <v>30724.14482028158</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
@@ -26436,28 +26436,28 @@
         <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
+        <v>17328.05961985009</v>
+      </c>
+      <c r="J4" t="n">
         <v>17328.05961985008</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>17328.05961985009</v>
+      </c>
+      <c r="L4" t="n">
         <v>17328.05961985006</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>17328.05961985006</v>
-      </c>
-      <c r="L4" t="n">
-        <v>17328.05961985005</v>
-      </c>
-      <c r="M4" t="n">
-        <v>17328.05961985005</v>
       </c>
       <c r="N4" t="n">
         <v>17328.05961985006</v>
       </c>
       <c r="O4" t="n">
-        <v>17328.05961985005</v>
+        <v>17328.05961985006</v>
       </c>
       <c r="P4" t="n">
-        <v>17328.05961985007</v>
+        <v>17328.05961985006</v>
       </c>
     </row>
     <row r="5">
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1222530.624509685</v>
+        <v>-1222994.921301709</v>
       </c>
       <c r="C6" t="n">
         <v>-209138.0018853401</v>
       </c>
       <c r="D6" t="n">
-        <v>-368559.2718832321</v>
+        <v>-368559.2718832319</v>
       </c>
       <c r="E6" t="n">
-        <v>-415693.5269957687</v>
+        <v>-415728.2649212044</v>
       </c>
       <c r="F6" t="n">
-        <v>-90281.06518841354</v>
+        <v>-90315.80311384924</v>
       </c>
       <c r="G6" t="n">
-        <v>-90281.06518841354</v>
+        <v>-90315.80311384924</v>
       </c>
       <c r="H6" t="n">
-        <v>-90281.06518841354</v>
+        <v>-90315.80311384924</v>
       </c>
       <c r="I6" t="n">
         <v>-119393.8492207902</v>
@@ -26546,22 +26546,22 @@
         <v>-267571.3090371409</v>
       </c>
       <c r="K6" t="n">
-        <v>-99966.13122715839</v>
+        <v>-99966.13122715842</v>
       </c>
       <c r="L6" t="n">
-        <v>-148260.101235349</v>
+        <v>-148260.1012353491</v>
       </c>
       <c r="M6" t="n">
         <v>-185021.1591626702</v>
       </c>
       <c r="N6" t="n">
-        <v>-119393.8492207902</v>
+        <v>-119393.8492207901</v>
       </c>
       <c r="O6" t="n">
-        <v>-99966.13122715836</v>
+        <v>-99966.13122715837</v>
       </c>
       <c r="P6" t="n">
-        <v>-99966.13122715842</v>
+        <v>-99966.13122715837</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.2846474920397</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26926,13 +26926,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973557</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>68.70008561924071</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>36.82264764023569</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>273.9799834883197</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>66.02790740679711</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>10.99083184814481</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>148.7526520277466</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>257.0999830598544</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>344.3958102878691</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>83.32522828944182</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>216.785413502806</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="26">
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="29">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496632</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>405.6377363145776</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,10 +32798,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>233.9389431948335</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33433,7 +33433,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33509,16 +33509,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>576.057346513631</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>622.4553810291982</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>505.2035778706894</v>
+        <v>364.0350380248667</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663299</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312443</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,10 +36446,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36522,13 +36522,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N25" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P25" t="n">
         <v>319.9164207986647</v>
@@ -36759,7 +36759,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>91.80490927281522</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37157,16 +37157,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>433.4611020691866</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
